--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r107_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1806,10 +1818,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1853,28 +1865,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1899,28 +1911,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2251,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2286,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2344,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2730,10 +2742,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2777,28 +2789,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2823,28 +2835,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2932,10 +2944,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2979,28 +2991,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3025,28 +3037,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3134,10 +3146,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3181,28 +3193,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3227,28 +3239,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3423,10 +3435,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3470,28 +3482,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3516,28 +3528,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3625,10 +3637,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3672,28 +3684,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3718,28 +3730,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3868,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3915,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3961,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4058,10 +4070,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="2" t="s">
+      <c r="J136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4105,28 +4117,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="2">
+      <c r="C138" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4151,28 +4163,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4260,10 +4272,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4307,28 +4319,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4353,28 +4365,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4491,10 +4503,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4538,28 +4550,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4584,28 +4596,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4693,10 +4705,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4740,28 +4752,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4786,28 +4798,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4866,10 +4878,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4913,28 +4925,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4959,28 +4971,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5068,10 +5080,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5115,28 +5127,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5161,28 +5173,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5282,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5317,28 +5329,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5375,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5472,10 +5484,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5519,28 +5531,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5565,28 +5577,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5703,10 +5715,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5750,28 +5762,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5796,28 +5808,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5905,10 +5917,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5952,28 +5964,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5998,28 +6010,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6379,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6472,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6581,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6628,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6674,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6771,10 +6783,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6818,28 +6830,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6864,28 +6876,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6985,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7020,28 +7032,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7078,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7175,10 +7187,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7222,28 +7234,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7268,28 +7280,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7406,10 +7418,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7453,28 +7465,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7499,28 +7511,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7579,10 +7591,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7626,28 +7638,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7672,28 +7684,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7752,10 +7764,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7799,28 +7811,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7845,28 +7857,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7925,10 +7937,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7972,28 +7984,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8018,28 +8030,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8098,10 +8110,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8145,28 +8157,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8191,28 +8203,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8300,10 +8312,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8347,28 +8359,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8393,28 +8405,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8473,10 +8485,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8520,28 +8532,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8566,28 +8578,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8646,10 +8658,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8693,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8739,28 +8751,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
